--- a/translation/new_language.xlsx
+++ b/translation/new_language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5B20F-CDCD-44BF-8F94-0EB5CF578EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EE922-0D6A-4016-BE10-34AFA8400692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="author_info" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="951">
   <si>
     <t>g_lang.ask_if_reinit.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2133,14 +2133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You are the seller of this item. Successfully taken this item back.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click again to take this item back.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>You have no income to collect. Try to sell something!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2209,10 +2201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Selling Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Returned Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3729,6 +3717,29 @@
   </si>
   <si>
     <t>清除所有数据失败。请输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click again to take this item back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are the seller of this item. Successfully taken it back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Selling Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About to be returned</t>
+  </si>
+  <si>
+    <t>即将退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4218,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59289576-5105-41A9-A115-7C78277B8CD9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4230,29 +4241,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C1" t="s">
         <v>937</v>
-      </c>
-      <c r="C1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -4263,9 +4274,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC84E5-621A-4D4C-80FE-0993A9D0C53C}">
-  <dimension ref="A1:DL570"/>
+  <dimension ref="A1:DL571"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -4292,10 +4303,10 @@
         <v>367</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>365</v>
@@ -4304,7 +4315,7 @@
         <v>382</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4446,7 +4457,7 @@
         <v>406</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4569,10 +4580,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="17"/>
       <c r="F4" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4695,10 +4706,10 @@
       <c r="D5" s="10"/>
       <c r="E5" s="17"/>
       <c r="F5" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4821,10 +4832,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="17"/>
       <c r="F6" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4950,7 +4961,7 @@
         <v>407</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -5199,7 +5210,7 @@
         <v>408</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -5316,7 +5327,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>288</v>
@@ -5327,10 +5338,10 @@
         <v>443</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -5452,10 +5463,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="17"/>
       <c r="F11" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -5830,7 +5841,7 @@
         <v>410</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5953,10 +5964,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="17"/>
       <c r="F15" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -6082,7 +6093,7 @@
         <v>411</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -6208,7 +6219,7 @@
         <v>412</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -6334,7 +6345,7 @@
         <v>413</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -6461,10 +6472,10 @@
         <v>443</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -6710,7 +6721,7 @@
         <v>414</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -6833,10 +6844,10 @@
       <c r="D22" s="10"/>
       <c r="E22" s="17"/>
       <c r="F22" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -6962,7 +6973,7 @@
         <v>415</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -7211,7 +7222,7 @@
         <v>416</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -7337,7 +7348,7 @@
         <v>417</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -7586,7 +7597,7 @@
         <v>418</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -7835,7 +7846,7 @@
         <v>419</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -8075,7 +8086,7 @@
         <v>355</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E32" s="18" t="str">
         <f>HYPERLINK("../display_images/zh_cn/g_lang.open.banned.png","img")</f>
@@ -8085,10 +8096,10 @@
         <v>420</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8228,7 +8239,7 @@
         <v>421</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="15"/>
@@ -8476,7 +8487,7 @@
         <v>422</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -8725,7 +8736,7 @@
         <v>423</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -8974,7 +8985,7 @@
         <v>424</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -9223,7 +9234,7 @@
         <v>425</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -9472,7 +9483,7 @@
         <v>426</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -9599,10 +9610,10 @@
         <v>427</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="46" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9742,7 +9753,7 @@
         <v>428</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -9868,7 +9879,7 @@
         <v>429</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48"/>
@@ -10117,7 +10128,7 @@
         <v>430</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -10234,7 +10245,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>291</v>
@@ -10244,10 +10255,10 @@
         <v>427</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10387,7 +10398,7 @@
         <v>431</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -10636,7 +10647,7 @@
         <v>432</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -10763,10 +10774,10 @@
         <v>440</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="57" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10774,7 +10785,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="10"/>
@@ -10783,7 +10794,7 @@
         <v>433</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -10909,7 +10920,7 @@
         <v>434</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -11158,7 +11169,7 @@
         <v>435</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -11407,7 +11418,7 @@
         <v>436</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -11533,7 +11544,7 @@
         <v>437</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -11659,7 +11670,7 @@
         <v>438</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -11785,7 +11796,7 @@
         <v>439</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -11912,10 +11923,10 @@
         <v>440</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11932,7 +11943,7 @@
         <v>441</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -12058,7 +12069,7 @@
         <v>442</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -12185,10 +12196,10 @@
         <v>443</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="70" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12565,7 +12576,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="10"/>
@@ -12696,10 +12707,10 @@
         <v>img</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
@@ -12826,10 +12837,10 @@
         <v>440</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12840,17 +12851,17 @@
         <v>56</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="6" t="s">
         <v>441</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12864,10 +12875,10 @@
       <c r="D77" s="10"/>
       <c r="E77" s="17"/>
       <c r="F77" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
@@ -12991,13 +13002,13 @@
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16"/>
@@ -13014,13 +13025,13 @@
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I79" s="15"/>
     </row>
@@ -13161,7 +13172,7 @@
         <v>445</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H81" s="10"/>
       <c r="I81"/>
@@ -13288,10 +13299,10 @@
         <v>440</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I82" s="15"/>
     </row>
@@ -13303,17 +13314,17 @@
         <v>50</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="6" t="s">
         <v>441</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I83" s="15"/>
     </row>
@@ -13331,7 +13342,7 @@
         <v>446</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84"/>
@@ -13455,13 +13466,13 @@
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
@@ -13478,13 +13489,13 @@
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I86" s="15"/>
     </row>
@@ -13625,7 +13636,7 @@
         <v>447</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H88" s="10"/>
       <c r="I88"/>
@@ -13752,10 +13763,10 @@
         <v>440</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I89" s="15"/>
     </row>
@@ -13767,17 +13778,17 @@
         <v>340</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="6" t="s">
         <v>441</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I90" s="15"/>
     </row>
@@ -13796,10 +13807,10 @@
         <v>448</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I91" s="15"/>
     </row>
@@ -13815,13 +13826,13 @@
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I92" s="15"/>
     </row>
@@ -13838,13 +13849,13 @@
       <c r="D93" s="10"/>
       <c r="E93" s="17"/>
       <c r="F93" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I93"/>
       <c r="J93" s="10"/>
@@ -13986,7 +13997,7 @@
         <v>449</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H95" s="10"/>
       <c r="I95"/>
@@ -14112,7 +14123,7 @@
         <v>450</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
@@ -14238,7 +14249,7 @@
         <v>451</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
@@ -14365,10 +14376,10 @@
         <v>440</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I98" s="15"/>
     </row>
@@ -14380,17 +14391,17 @@
         <v>333</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="6" t="s">
         <v>441</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I99" s="15"/>
     </row>
@@ -14409,10 +14420,10 @@
         <v>448</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I100" s="15"/>
     </row>
@@ -14428,13 +14439,13 @@
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I101" s="15"/>
     </row>
@@ -14450,13 +14461,13 @@
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I102" s="15"/>
     </row>
@@ -14595,13 +14606,13 @@
         <v>img</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I104" s="15"/>
     </row>
@@ -14742,7 +14753,7 @@
         <v>452</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -14991,7 +15002,7 @@
         <v>453</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -15238,13 +15249,13 @@
         <v>img</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I110" s="15"/>
     </row>
@@ -15382,10 +15393,10 @@
         <v>img</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
@@ -15505,17 +15516,17 @@
         <v>198</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E113" s="17"/>
       <c r="F113" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:116" x14ac:dyDescent="0.2">
@@ -15539,10 +15550,10 @@
         <v>img</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I115" s="10"/>
     </row>
@@ -15558,7 +15569,7 @@
         <v>454</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I116" s="10"/>
     </row>
@@ -15583,10 +15594,10 @@
         <v>img</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I118" s="10"/>
     </row>
@@ -15598,18 +15609,18 @@
         <v>202</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="17"/>
       <c r="F119" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -15741,10 +15752,10 @@
         <v>img</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I121" s="10"/>
     </row>
@@ -15772,7 +15783,7 @@
         <v>455</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I123" s="10"/>
     </row>
@@ -15788,7 +15799,7 @@
         <v>456</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I124" s="10"/>
     </row>
@@ -15813,10 +15824,10 @@
         <v>img</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I126" s="10"/>
     </row>
@@ -15843,10 +15854,10 @@
         <v>img</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="G128" s="30" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -15981,7 +15992,7 @@
         <v>457</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I130" s="10"/>
     </row>
@@ -16009,7 +16020,7 @@
         <v>458</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I132" s="10"/>
     </row>
@@ -16037,7 +16048,7 @@
         <v>459</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I134" s="10"/>
     </row>
@@ -16058,7 +16069,7 @@
         <v>356</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="18" t="str">
@@ -16069,10 +16080,10 @@
         <v>460</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
@@ -16207,7 +16218,7 @@
         <v>461</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I138" s="10"/>
     </row>
@@ -16219,7 +16230,7 @@
         <v>352</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="17"/>
@@ -16227,10 +16238,10 @@
         <v>441</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I139" s="15"/>
       <c r="J139" s="2"/>
@@ -16346,7 +16357,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C140" s="21" t="s">
         <v>363</v>
@@ -16354,13 +16365,13 @@
       <c r="D140" s="2"/>
       <c r="E140" s="17"/>
       <c r="F140" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I140" s="15"/>
       <c r="J140" s="2"/>
@@ -16476,14 +16487,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E141" s="17"/>
       <c r="F141" s="8" t="s">
         <v>462</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I141" s="10"/>
     </row>
@@ -16499,7 +16510,7 @@
         <v>463</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I142" s="10"/>
     </row>
@@ -16526,10 +16537,10 @@
         <v>img</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H144" s="28"/>
       <c r="I144" s="2"/>
@@ -16665,7 +16676,7 @@
         <v>464</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I146" s="10"/>
     </row>
@@ -16693,7 +16704,7 @@
         <v>465</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I148" s="10"/>
     </row>
@@ -16709,7 +16720,7 @@
         <v>466</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I149" s="10"/>
     </row>
@@ -16725,7 +16736,7 @@
         <v>467</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I150" s="10"/>
     </row>
@@ -16741,7 +16752,7 @@
         <v>468</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I151" s="10"/>
     </row>
@@ -16757,7 +16768,7 @@
         <v>469</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I152" s="10"/>
     </row>
@@ -16775,7 +16786,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="8"/>
@@ -16797,7 +16808,7 @@
         <v>470</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I155" s="10"/>
     </row>
@@ -16825,7 +16836,7 @@
         <v>471</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I157" s="10"/>
     </row>
@@ -16841,7 +16852,7 @@
         <v>472</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I158" s="10"/>
     </row>
@@ -16862,7 +16873,7 @@
         <v>18</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="18" t="str">
@@ -16873,10 +16884,10 @@
         <v>473</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -17011,7 +17022,7 @@
         <v>474</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I162" s="10"/>
     </row>
@@ -17039,7 +17050,7 @@
         <v>475</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I164" s="10"/>
     </row>
@@ -17060,7 +17071,7 @@
         <v>21</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="18" t="str">
@@ -17071,10 +17082,10 @@
         <v>473</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -17209,7 +17220,7 @@
         <v>476</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I168" s="10"/>
     </row>
@@ -17237,7 +17248,7 @@
         <v>474</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I170" s="10"/>
     </row>
@@ -17258,7 +17269,7 @@
         <v>23</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="18" t="str">
@@ -17269,10 +17280,10 @@
         <v>473</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -17407,7 +17418,7 @@
         <v>477</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I174" s="10"/>
     </row>
@@ -17435,7 +17446,7 @@
         <v>478</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I176" s="10"/>
     </row>
@@ -17463,7 +17474,7 @@
         <v>479</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I178" s="10"/>
     </row>
@@ -17491,7 +17502,7 @@
         <v>480</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I180" s="10"/>
     </row>
@@ -17516,10 +17527,10 @@
         <v>img</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I182" s="10"/>
     </row>
@@ -17535,7 +17546,7 @@
         <v>481</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I183" s="10"/>
     </row>
@@ -17560,10 +17571,10 @@
         <v>img</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I185" s="10"/>
     </row>
@@ -17593,7 +17604,7 @@
         <v>482</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="H187" s="3"/>
     </row>
@@ -17621,7 +17632,7 @@
         <v>483</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I189" s="10"/>
     </row>
@@ -17633,18 +17644,18 @@
         <v>364</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="17"/>
       <c r="F190" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I190" s="15"/>
       <c r="J190" s="2"/>
@@ -17779,7 +17790,7 @@
         <v>484</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I192" s="10"/>
     </row>
@@ -17807,7 +17818,7 @@
         <v>485</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I194" s="10"/>
     </row>
@@ -17816,21 +17827,21 @@
         <v>194</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="17"/>
       <c r="F195" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -17965,7 +17976,7 @@
         <v>486</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I197" s="10"/>
     </row>
@@ -17993,7 +18004,7 @@
         <v>487</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I199" s="10"/>
     </row>
@@ -18021,7 +18032,7 @@
         <v>488</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="I201" s="10"/>
     </row>
@@ -18061,7 +18072,7 @@
         <v>489</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="I204" s="10"/>
     </row>
@@ -18089,7 +18100,7 @@
         <v>490</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="I206" s="10"/>
     </row>
@@ -18117,7 +18128,7 @@
         <v>491</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I208" s="10"/>
     </row>
@@ -18142,10 +18153,10 @@
         <v>img</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I210" s="10"/>
     </row>
@@ -18157,7 +18168,7 @@
         <v>35</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="17"/>
@@ -18165,10 +18176,10 @@
         <v>492</v>
       </c>
       <c r="G211" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -18295,10 +18306,10 @@
         <v>440</v>
       </c>
       <c r="G212" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I212" s="15"/>
       <c r="J212" s="2"/>
@@ -18417,7 +18428,7 @@
         <v>37</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="17"/>
@@ -18425,10 +18436,10 @@
         <v>441</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I213" s="15"/>
       <c r="J213" s="2"/>
@@ -18551,7 +18562,7 @@
         <v>493</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I214" s="10"/>
     </row>
@@ -18579,7 +18590,7 @@
         <v>494</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="I216" s="10"/>
     </row>
@@ -18607,7 +18618,7 @@
         <v>495</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I218" s="10"/>
     </row>
@@ -18635,7 +18646,7 @@
         <v>496</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="I220" s="10"/>
     </row>
@@ -18663,7 +18674,7 @@
         <v>497</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I222" s="10"/>
     </row>
@@ -18676,10 +18687,10 @@
       </c>
       <c r="E223" s="17"/>
       <c r="F223" s="8" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="224" spans="1:116" x14ac:dyDescent="0.2">
@@ -18703,10 +18714,10 @@
         <v>img</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I225" s="10"/>
     </row>
@@ -18726,10 +18737,10 @@
         <v>498</v>
       </c>
       <c r="G226" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I226" s="15"/>
       <c r="J226" s="2"/>
@@ -18864,7 +18875,7 @@
         <v>499</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I228" s="10"/>
     </row>
@@ -18876,18 +18887,18 @@
         <v>163</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="17"/>
       <c r="F229" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I229" s="15"/>
       <c r="J229" s="2"/>
@@ -19019,10 +19030,10 @@
         <v>img</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="I231" s="10"/>
     </row>
@@ -19040,7 +19051,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E233" s="17"/>
       <c r="F233" s="8"/>
@@ -19062,7 +19073,7 @@
         <v>500</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I234" s="10"/>
     </row>
@@ -19090,7 +19101,7 @@
         <v>501</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="I236" s="10"/>
     </row>
@@ -19118,7 +19129,7 @@
         <v>502</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I238" s="10"/>
     </row>
@@ -19143,10 +19154,10 @@
         <v>img</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="I240" s="10"/>
     </row>
@@ -19158,7 +19169,7 @@
         <v>40</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="17"/>
@@ -19166,10 +19177,10 @@
         <v>492</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
@@ -19296,10 +19307,10 @@
         <v>440</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I242" s="15"/>
       <c r="J242" s="2"/>
@@ -19418,7 +19429,7 @@
         <v>42</v>
       </c>
       <c r="C243" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="17"/>
@@ -19426,10 +19437,10 @@
         <v>441</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I243" s="15"/>
       <c r="J243" s="2"/>
@@ -19552,7 +19563,7 @@
         <v>493</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I244" s="10"/>
     </row>
@@ -19580,7 +19591,7 @@
         <v>503</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I246" s="10"/>
     </row>
@@ -19608,7 +19619,7 @@
         <v>504</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="I248" s="10"/>
     </row>
@@ -19636,7 +19647,7 @@
         <v>505</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="I250" s="10"/>
     </row>
@@ -19664,7 +19675,7 @@
         <v>506</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I252" s="10"/>
     </row>
@@ -19676,18 +19687,18 @@
         <v>166</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="17"/>
       <c r="F253" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G253" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="2"/>
@@ -19815,7 +19826,7 @@
         <v>167</v>
       </c>
       <c r="C255" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="18" t="str">
@@ -19826,10 +19837,10 @@
         <v>545</v>
       </c>
       <c r="G255" s="14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
@@ -19961,7 +19972,7 @@
         <v>img</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>168</v>
@@ -20004,7 +20015,7 @@
         <v>507</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="I260" s="10"/>
     </row>
@@ -20032,7 +20043,7 @@
         <v>508</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="I262" s="10"/>
     </row>
@@ -20060,7 +20071,7 @@
         <v>509</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I264" s="10"/>
     </row>
@@ -20076,7 +20087,7 @@
         <v>510</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I265" s="10"/>
     </row>
@@ -20116,7 +20127,7 @@
         <v>511</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="I268" s="10"/>
     </row>
@@ -20134,7 +20145,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E270" s="17"/>
       <c r="F270" s="8"/>
@@ -20153,10 +20164,10 @@
         <v>img</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="I271" s="10"/>
     </row>
@@ -20184,7 +20195,7 @@
         <v>512</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I273" s="10"/>
     </row>
@@ -20200,7 +20211,7 @@
         <v>513</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="I274" s="10"/>
     </row>
@@ -20209,10 +20220,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="17"/>
@@ -20220,10 +20231,10 @@
         <v>441</v>
       </c>
       <c r="G275" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I275" s="15"/>
       <c r="J275" s="2"/>
@@ -20339,7 +20350,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>363</v>
@@ -20347,13 +20358,13 @@
       <c r="D276" s="2"/>
       <c r="E276" s="17"/>
       <c r="F276" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G276" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I276" s="15"/>
       <c r="J276" s="2"/>
@@ -20469,14 +20480,14 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="8" t="s">
         <v>514</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="I277" s="10"/>
     </row>
@@ -20485,14 +20496,14 @@
         <v>277</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="8" t="s">
         <v>515</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I278" s="10"/>
     </row>
@@ -20501,14 +20512,14 @@
         <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E279" s="17"/>
       <c r="F279" s="8" t="s">
         <v>516</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I279" s="10"/>
     </row>
@@ -20517,14 +20528,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E280" s="17"/>
       <c r="F280" s="8" t="s">
         <v>517</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I280" s="10"/>
     </row>
@@ -20533,14 +20544,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E281" s="17"/>
       <c r="F281" s="8" t="s">
         <v>518</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I281" s="10"/>
     </row>
@@ -20558,7 +20569,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E283" s="17"/>
       <c r="F283" s="8"/>
@@ -20580,7 +20591,7 @@
         <v>519</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I284" s="10"/>
     </row>
@@ -20601,7 +20612,7 @@
         <v>65</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="18" t="str">
@@ -20612,10 +20623,10 @@
         <v>520</v>
       </c>
       <c r="G286" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
@@ -20734,18 +20745,18 @@
         <v>66</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="17"/>
       <c r="F287" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G287" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
@@ -20872,10 +20883,10 @@
         <v>521</v>
       </c>
       <c r="G288" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="2"/>
@@ -21010,7 +21021,7 @@
         <v>522</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I290" s="10"/>
     </row>
@@ -21031,7 +21042,7 @@
         <v>69</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="18" t="str">
@@ -21042,10 +21053,10 @@
         <v>520</v>
       </c>
       <c r="G292" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
@@ -21164,18 +21175,18 @@
         <v>70</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="17"/>
       <c r="F293" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G293" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
@@ -21302,10 +21313,10 @@
         <v>521</v>
       </c>
       <c r="G294" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I294" s="15"/>
       <c r="J294" s="2"/>
@@ -21440,7 +21451,7 @@
         <v>523</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I296" s="10"/>
     </row>
@@ -21461,7 +21472,7 @@
         <v>73</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="18" t="str">
@@ -21472,10 +21483,10 @@
         <v>520</v>
       </c>
       <c r="G298" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
@@ -21594,18 +21605,18 @@
         <v>74</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="17"/>
       <c r="F299" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G299" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
@@ -21732,10 +21743,10 @@
         <v>521</v>
       </c>
       <c r="G300" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I300" s="15"/>
       <c r="J300" s="2"/>
@@ -21870,7 +21881,7 @@
         <v>524</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I302" s="10"/>
     </row>
@@ -21891,7 +21902,7 @@
         <v>77</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="18" t="str">
@@ -21902,10 +21913,10 @@
         <v>520</v>
       </c>
       <c r="G304" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
@@ -22024,18 +22035,18 @@
         <v>78</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="17"/>
       <c r="F305" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G305" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
@@ -22162,10 +22173,10 @@
         <v>521</v>
       </c>
       <c r="G306" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I306" s="15"/>
       <c r="J306" s="2"/>
@@ -22300,7 +22311,7 @@
         <v>525</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I308" s="10"/>
     </row>
@@ -22320,10 +22331,10 @@
         <v>440</v>
       </c>
       <c r="G309" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I309" s="15"/>
       <c r="J309" s="2"/>
@@ -22442,7 +22453,7 @@
         <v>82</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="17"/>
@@ -22450,10 +22461,10 @@
         <v>441</v>
       </c>
       <c r="G310" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I310" s="15"/>
       <c r="J310" s="2"/>
@@ -22572,18 +22583,18 @@
         <v>83</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="17"/>
       <c r="F311" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G311" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I311" s="15"/>
       <c r="J311" s="2"/>
@@ -22706,7 +22717,7 @@
         <v>526</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I312" s="10"/>
     </row>
@@ -22722,7 +22733,7 @@
         <v>527</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I313" s="10"/>
     </row>
@@ -22742,10 +22753,10 @@
         <v>528</v>
       </c>
       <c r="G314" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I314" s="15"/>
       <c r="J314" s="2"/>
@@ -22872,10 +22883,10 @@
         <v>529</v>
       </c>
       <c r="G315" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I315" s="15"/>
       <c r="J315" s="2"/>
@@ -23010,7 +23021,7 @@
         <v>530</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I317" s="10"/>
     </row>
@@ -23030,10 +23041,10 @@
         <v>440</v>
       </c>
       <c r="G318" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I318" s="15"/>
       <c r="J318" s="2"/>
@@ -23152,7 +23163,7 @@
         <v>90</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="17"/>
@@ -23160,10 +23171,10 @@
         <v>441</v>
       </c>
       <c r="G319" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I319" s="15"/>
       <c r="J319" s="2"/>
@@ -23282,18 +23293,18 @@
         <v>91</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="17"/>
       <c r="F320" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G320" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I320" s="15"/>
       <c r="J320" s="2"/>
@@ -23416,7 +23427,7 @@
         <v>531</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I321" s="10"/>
     </row>
@@ -23432,7 +23443,7 @@
         <v>532</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I322" s="10"/>
     </row>
@@ -23452,10 +23463,10 @@
         <v>528</v>
       </c>
       <c r="G323" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I323" s="15"/>
       <c r="J323" s="2"/>
@@ -23582,10 +23593,10 @@
         <v>529</v>
       </c>
       <c r="G324" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I324" s="15"/>
       <c r="J324" s="2"/>
@@ -23720,7 +23731,7 @@
         <v>533</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I326" s="10"/>
     </row>
@@ -23740,10 +23751,10 @@
         <v>440</v>
       </c>
       <c r="G327" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I327" s="15"/>
       <c r="J327" s="2"/>
@@ -23862,7 +23873,7 @@
         <v>99</v>
       </c>
       <c r="C328" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="17"/>
@@ -23870,10 +23881,10 @@
         <v>441</v>
       </c>
       <c r="G328" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I328" s="15"/>
       <c r="J328" s="2"/>
@@ -23992,18 +24003,18 @@
         <v>100</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="17"/>
       <c r="F329" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G329" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I329" s="15"/>
       <c r="J329" s="2"/>
@@ -24126,7 +24137,7 @@
         <v>534</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I330" s="10"/>
     </row>
@@ -24142,7 +24153,7 @@
         <v>535</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I331" s="10"/>
     </row>
@@ -24162,10 +24173,10 @@
         <v>528</v>
       </c>
       <c r="G332" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I332" s="10"/>
       <c r="K332" s="2"/>
@@ -24291,10 +24302,10 @@
         <v>529</v>
       </c>
       <c r="G333" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H333" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I333" s="15"/>
       <c r="J333" s="2"/>
@@ -24429,7 +24440,7 @@
         <v>536</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I335" s="10"/>
     </row>
@@ -24449,10 +24460,10 @@
         <v>440</v>
       </c>
       <c r="G336" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I336" s="15"/>
       <c r="J336" s="2"/>
@@ -24571,7 +24582,7 @@
         <v>108</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="17"/>
@@ -24579,10 +24590,10 @@
         <v>441</v>
       </c>
       <c r="G337" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I337" s="15"/>
       <c r="J337" s="2"/>
@@ -24701,18 +24712,18 @@
         <v>109</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="17"/>
       <c r="F338" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G338" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -24835,7 +24846,7 @@
         <v>537</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I339" s="10"/>
     </row>
@@ -24851,7 +24862,7 @@
         <v>538</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I340" s="10"/>
     </row>
@@ -24871,10 +24882,10 @@
         <v>528</v>
       </c>
       <c r="G341" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I341" s="10"/>
       <c r="K341" s="2"/>
@@ -25000,10 +25011,10 @@
         <v>529</v>
       </c>
       <c r="G342" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I342" s="15"/>
       <c r="J342" s="2"/>
@@ -25138,7 +25149,7 @@
         <v>539</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I344" s="10"/>
     </row>
@@ -25166,7 +25177,7 @@
         <v>540</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I346" s="10"/>
     </row>
@@ -25184,7 +25195,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E348" s="17"/>
       <c r="F348" s="8"/>
@@ -25199,7 +25210,7 @@
         <v>114</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="18" t="str">
@@ -25210,10 +25221,10 @@
         <v>541</v>
       </c>
       <c r="G349" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -25341,7 +25352,7 @@
         <v>115</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="18" t="str">
@@ -25352,10 +25363,10 @@
         <v>541</v>
       </c>
       <c r="G351" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -25483,7 +25494,7 @@
         <v>116</v>
       </c>
       <c r="C353" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="18" t="str">
@@ -25494,10 +25505,10 @@
         <v>542</v>
       </c>
       <c r="G353" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -25629,10 +25640,10 @@
         <v>img</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I355" s="10"/>
     </row>
@@ -25659,10 +25670,10 @@
         <v>img</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H357" s="3"/>
     </row>
@@ -25683,7 +25694,7 @@
         <v>118</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="18" t="str">
@@ -25694,10 +25705,10 @@
         <v>542</v>
       </c>
       <c r="G359" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -25834,7 +25845,7 @@
         <v>543</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H361" s="3"/>
     </row>
@@ -25862,7 +25873,7 @@
         <v>544</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I363" s="10"/>
     </row>
@@ -25887,10 +25898,10 @@
         <v>img</v>
       </c>
       <c r="F365" s="8" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I365" s="10"/>
     </row>
@@ -25911,7 +25922,7 @@
         <v>123</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="18" t="str">
@@ -25922,10 +25933,10 @@
         <v>545</v>
       </c>
       <c r="G367" s="14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -26060,7 +26071,7 @@
         <v>546</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I369" s="10"/>
     </row>
@@ -26072,18 +26083,18 @@
         <v>125</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="17"/>
       <c r="F370" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G370" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H370" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I370" s="15"/>
       <c r="J370" s="2"/>
@@ -26215,10 +26226,10 @@
         <v>img</v>
       </c>
       <c r="F372" s="8" t="s">
-        <v>547</v>
+        <v>946</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I372" s="10"/>
     </row>
@@ -26247,13 +26258,13 @@
         <v>img</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>548</v>
+        <v>945</v>
       </c>
       <c r="G374" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I374" s="15"/>
       <c r="J374" s="2"/>
@@ -26385,10 +26396,10 @@
         <v>img</v>
       </c>
       <c r="F376" s="8" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="I376" s="10"/>
     </row>
@@ -26406,7 +26417,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="8"/>
@@ -26425,10 +26436,10 @@
         <v>img</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I379" s="10"/>
     </row>
@@ -26453,10 +26464,10 @@
         <v>img</v>
       </c>
       <c r="F381" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I381" s="10"/>
     </row>
@@ -26481,10 +26492,10 @@
         <v>img</v>
       </c>
       <c r="F383" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I383" s="10"/>
     </row>
@@ -26504,10 +26515,10 @@
         <v>498</v>
       </c>
       <c r="G384" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I384" s="15"/>
       <c r="J384" s="2"/>
@@ -26639,10 +26650,10 @@
         <v>img</v>
       </c>
       <c r="F386" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I386" s="10"/>
     </row>
@@ -26654,18 +26665,18 @@
         <v>133</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="17"/>
       <c r="F387" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G387" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I387" s="15"/>
       <c r="J387" s="2"/>
@@ -26797,10 +26808,10 @@
         <v>img</v>
       </c>
       <c r="F389" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I389" s="10"/>
     </row>
@@ -26813,10 +26824,10 @@
       </c>
       <c r="E390" s="17"/>
       <c r="F390" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="I390" s="10"/>
     </row>
@@ -26841,10 +26852,10 @@
         <v>img</v>
       </c>
       <c r="F392" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I392" s="10"/>
     </row>
@@ -26856,7 +26867,7 @@
         <v>138</v>
       </c>
       <c r="C393" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="17"/>
@@ -26864,10 +26875,10 @@
         <v>492</v>
       </c>
       <c r="G393" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
@@ -26994,10 +27005,10 @@
         <v>440</v>
       </c>
       <c r="G394" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I394" s="15"/>
       <c r="J394" s="2"/>
@@ -27116,7 +27127,7 @@
         <v>140</v>
       </c>
       <c r="C395" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="17"/>
@@ -27124,10 +27135,10 @@
         <v>441</v>
       </c>
       <c r="G395" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I395" s="15"/>
       <c r="J395" s="2"/>
@@ -27250,7 +27261,7 @@
         <v>493</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="I396" s="10"/>
     </row>
@@ -27278,7 +27289,7 @@
         <v>498</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I398" s="10"/>
     </row>
@@ -27303,10 +27314,10 @@
         <v>img</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="I400" s="10"/>
     </row>
@@ -27334,7 +27345,7 @@
         <v>501</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="I402" s="10"/>
     </row>
@@ -27362,7 +27373,7 @@
         <v>502</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I404" s="10"/>
     </row>
@@ -27380,7 +27391,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E406" s="17"/>
       <c r="F406" s="8"/>
@@ -27399,10 +27410,10 @@
         <v>img</v>
       </c>
       <c r="F407" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="I407" s="10"/>
     </row>
@@ -27427,7 +27438,7 @@
         <v>img</v>
       </c>
       <c r="F409" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G409" s="11" t="s">
         <v>146</v>
@@ -27448,7 +27459,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E411" s="17"/>
       <c r="F411" s="8"/>
@@ -27467,10 +27478,10 @@
         <v>img</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="I412" s="10"/>
     </row>
@@ -27495,7 +27506,7 @@
         <v>img</v>
       </c>
       <c r="F414" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G414" s="11" t="s">
         <v>151</v>
@@ -27516,7 +27527,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E416" s="17"/>
       <c r="F416" s="8"/>
@@ -27531,7 +27542,7 @@
         <v>148</v>
       </c>
       <c r="C417" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="18" t="str">
@@ -27539,13 +27550,13 @@
         <v>img</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G417" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
@@ -27673,7 +27684,7 @@
         <v>149</v>
       </c>
       <c r="C419" s="21" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="18" t="str">
@@ -27681,13 +27692,13 @@
         <v>img</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G419" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
@@ -27823,13 +27834,13 @@
         <v>img</v>
       </c>
       <c r="F421" s="7" t="s">
-        <v>548</v>
+        <v>945</v>
       </c>
       <c r="G421" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I421" s="15"/>
       <c r="J421" s="2"/>
@@ -27954,7 +27965,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E423" s="17"/>
       <c r="F423" s="8"/>
@@ -27973,10 +27984,10 @@
         <v>img</v>
       </c>
       <c r="F424" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G424" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I424" s="10"/>
     </row>
@@ -27997,7 +28008,7 @@
         <v>154</v>
       </c>
       <c r="C426" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="18" t="str">
@@ -28005,13 +28016,13 @@
         <v>img</v>
       </c>
       <c r="F426" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="G426" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
@@ -28139,7 +28150,7 @@
         <v>155</v>
       </c>
       <c r="C428" s="21" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="18" t="str">
@@ -28147,13 +28158,13 @@
         <v>img</v>
       </c>
       <c r="F428" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G428" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
@@ -28297,10 +28308,10 @@
         <v>img</v>
       </c>
       <c r="F431" s="8" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G431" s="11" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I431" s="10"/>
     </row>
@@ -28321,7 +28332,7 @@
         <v>208</v>
       </c>
       <c r="C433" s="21" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="18" t="str">
@@ -28329,13 +28340,13 @@
         <v>img</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G433" s="6" t="s">
         <v>207</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
@@ -28467,10 +28478,10 @@
         <v>img</v>
       </c>
       <c r="F435" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I435" s="10"/>
     </row>
@@ -28495,10 +28506,10 @@
         <v>img</v>
       </c>
       <c r="F437" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I437" s="10"/>
     </row>
@@ -28551,7 +28562,7 @@
         <v>img</v>
       </c>
       <c r="F441" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G441" s="11" t="s">
         <v>213</v>
@@ -28575,7 +28586,7 @@
         <v>215</v>
       </c>
       <c r="C443" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="18" t="str">
@@ -28583,13 +28594,13 @@
         <v>img</v>
       </c>
       <c r="F443" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G443" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
@@ -28717,7 +28728,7 @@
         <v>216</v>
       </c>
       <c r="C445" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="18" t="str">
@@ -28725,13 +28736,13 @@
         <v>img</v>
       </c>
       <c r="F445" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G445" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
@@ -28859,7 +28870,7 @@
         <v>217</v>
       </c>
       <c r="C447" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="18" t="str">
@@ -28867,13 +28878,13 @@
         <v>img</v>
       </c>
       <c r="F447" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G447" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
@@ -28895,7 +28906,7 @@
         <v>218</v>
       </c>
       <c r="C449" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D449" s="16"/>
       <c r="E449" s="18" t="str">
@@ -28903,13 +28914,13 @@
         <v>img</v>
       </c>
       <c r="F449" s="7" t="s">
-        <v>566</v>
+        <v>947</v>
       </c>
       <c r="G449" s="14" t="s">
         <v>295</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I449" s="4"/>
       <c r="J449" s="2"/>
@@ -29037,7 +29048,7 @@
         <v>219</v>
       </c>
       <c r="C451" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="18" t="str">
@@ -29045,13 +29056,13 @@
         <v>img</v>
       </c>
       <c r="F451" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G451" s="6" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
@@ -29317,7 +29328,7 @@
         <v>img</v>
       </c>
       <c r="F455" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G455" s="11" t="s">
         <v>222</v>
@@ -29345,10 +29356,10 @@
         <v>img</v>
       </c>
       <c r="F457" s="8" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G457" s="11" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I457" s="10"/>
     </row>
@@ -29373,10 +29384,10 @@
         <v>img</v>
       </c>
       <c r="F459" s="8" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G459" s="11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I459" s="10"/>
     </row>
@@ -29397,7 +29408,7 @@
         <v>299</v>
       </c>
       <c r="C461" s="21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D461" s="16"/>
       <c r="E461" s="18" t="str">
@@ -29405,13 +29416,13 @@
         <v>img</v>
       </c>
       <c r="F461" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G461" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I461" s="4"/>
       <c r="J461" s="16"/>
@@ -29543,10 +29554,10 @@
         <v>img</v>
       </c>
       <c r="F463" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G463" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I463" s="10"/>
     </row>
@@ -29583,7 +29594,7 @@
         <v>img</v>
       </c>
       <c r="F466" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G466" s="11" t="s">
         <v>227</v>
@@ -29611,7 +29622,7 @@
         <v>img</v>
       </c>
       <c r="F468" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G468" s="11" t="s">
         <v>234</v>
@@ -29639,10 +29650,10 @@
         <v>img</v>
       </c>
       <c r="F470" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G470" s="11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="I470" s="10"/>
     </row>
@@ -29667,7 +29678,7 @@
         <v>img</v>
       </c>
       <c r="F472" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G472" s="11" t="s">
         <v>235</v>
@@ -29695,7 +29706,7 @@
         <v>img</v>
       </c>
       <c r="F474" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G474" s="11" t="s">
         <v>236</v>
@@ -29723,7 +29734,7 @@
         <v>img</v>
       </c>
       <c r="F476" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G476" s="11" t="s">
         <v>237</v>
@@ -29751,10 +29762,10 @@
         <v>img</v>
       </c>
       <c r="F478" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G478" s="11" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I478" s="10"/>
     </row>
@@ -29779,7 +29790,7 @@
         <v>img</v>
       </c>
       <c r="F480" s="8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="G480" s="11" t="s">
         <v>238</v>
@@ -29807,7 +29818,7 @@
         <v>img</v>
       </c>
       <c r="F482" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G482" s="11" t="s">
         <v>325</v>
@@ -29835,10 +29846,10 @@
         <v>img</v>
       </c>
       <c r="F484" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G484" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I484" s="10"/>
     </row>
@@ -29863,10 +29874,10 @@
         <v>img</v>
       </c>
       <c r="F486" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G486" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I486" s="10"/>
     </row>
@@ -29891,10 +29902,10 @@
         <v>img</v>
       </c>
       <c r="F488" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G488" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I488" s="10"/>
     </row>
@@ -29907,10 +29918,10 @@
       </c>
       <c r="E489" s="17"/>
       <c r="F489" s="8" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G489" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="I489" s="10"/>
     </row>
@@ -29938,7 +29949,7 @@
         <v>465</v>
       </c>
       <c r="G491" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I491" s="10"/>
     </row>
@@ -29951,10 +29962,10 @@
       </c>
       <c r="E492" s="17"/>
       <c r="F492" s="8" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G492" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I492" s="10"/>
     </row>
@@ -29963,14 +29974,14 @@
         <v>492</v>
       </c>
       <c r="B493" s="19" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E493" s="17"/>
       <c r="F493" s="8" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G493" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="I493" s="10"/>
     </row>
@@ -29983,10 +29994,10 @@
       </c>
       <c r="E494" s="17"/>
       <c r="F494" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G494" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="I494" s="10"/>
     </row>
@@ -30007,7 +30018,7 @@
         <v>241</v>
       </c>
       <c r="C496" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="18" t="str">
@@ -30015,13 +30026,13 @@
         <v>img</v>
       </c>
       <c r="F496" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G496" s="14" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H496" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -30259,10 +30270,10 @@
         <v>img</v>
       </c>
       <c r="F498" s="8" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G498" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I498" s="10"/>
     </row>
@@ -30275,10 +30286,10 @@
       </c>
       <c r="E499" s="17"/>
       <c r="F499" s="8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G499" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I499" s="10"/>
     </row>
@@ -30303,7 +30314,7 @@
         <v>img</v>
       </c>
       <c r="F501" s="8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G501" s="5" t="s">
         <v>242</v>
@@ -30327,7 +30338,7 @@
         <v>244</v>
       </c>
       <c r="C503" s="21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D503" s="16"/>
       <c r="E503" s="18" t="str">
@@ -30335,13 +30346,13 @@
         <v>img</v>
       </c>
       <c r="F503" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G503" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H503" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I503" s="4"/>
       <c r="J503" s="16"/>
@@ -30473,7 +30484,7 @@
         <v>img</v>
       </c>
       <c r="F505" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>297</v>
@@ -30501,7 +30512,7 @@
         <v>img</v>
       </c>
       <c r="F507" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G507" s="5" t="s">
         <v>246</v>
@@ -30529,7 +30540,7 @@
         <v>img</v>
       </c>
       <c r="F509" s="8" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G509" s="5" t="s">
         <v>284</v>
@@ -30557,10 +30568,10 @@
         <v>img</v>
       </c>
       <c r="F511" s="8" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="I511" s="10"/>
     </row>
@@ -30569,14 +30580,14 @@
         <v>511</v>
       </c>
       <c r="B512" s="19" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E512" s="17"/>
       <c r="F512" s="8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I512" s="10"/>
     </row>
@@ -30589,10 +30600,10 @@
       </c>
       <c r="E513" s="17"/>
       <c r="F513" s="8" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="I513" s="15"/>
       <c r="J513" s="2"/>
@@ -30606,10 +30617,10 @@
       </c>
       <c r="E514" s="17"/>
       <c r="F514" s="8" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="I514" s="10"/>
     </row>
@@ -30630,7 +30641,7 @@
         <v>253</v>
       </c>
       <c r="C516" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D516" s="16"/>
       <c r="E516" s="18" t="str">
@@ -30638,13 +30649,13 @@
         <v>img</v>
       </c>
       <c r="F516" s="7" t="s">
-        <v>566</v>
+        <v>947</v>
       </c>
       <c r="G516" s="14" t="s">
         <v>252</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I516" s="4"/>
       <c r="J516" s="2"/>
@@ -30670,7 +30681,7 @@
         <v>img</v>
       </c>
       <c r="F518" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G518" s="11" t="s">
         <v>254</v>
@@ -30698,7 +30709,7 @@
         <v>img</v>
       </c>
       <c r="F520" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G520" s="11" t="s">
         <v>256</v>
@@ -30722,7 +30733,7 @@
         <v>258</v>
       </c>
       <c r="C522" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" s="18" t="str">
@@ -30730,13 +30741,13 @@
         <v>img</v>
       </c>
       <c r="F522" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G522" s="6" t="s">
         <v>296</v>
       </c>
       <c r="H522" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
@@ -30864,7 +30875,7 @@
         <v>259</v>
       </c>
       <c r="C524" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" s="18" t="str">
@@ -30872,13 +30883,13 @@
         <v>img</v>
       </c>
       <c r="F524" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G524" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H524" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
@@ -31006,7 +31017,7 @@
         <v>260</v>
       </c>
       <c r="C526" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" s="18" t="str">
@@ -31014,13 +31025,13 @@
         <v>img</v>
       </c>
       <c r="F526" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G526" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
@@ -31046,7 +31057,7 @@
         <v>img</v>
       </c>
       <c r="F528" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G528" s="11" t="s">
         <v>261</v>
@@ -31074,10 +31085,10 @@
         <v>img</v>
       </c>
       <c r="F530" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I530" s="10"/>
     </row>
@@ -31102,7 +31113,7 @@
         <v>img</v>
       </c>
       <c r="F532" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G532" s="11" t="s">
         <v>264</v>
@@ -31130,10 +31141,10 @@
         <v>img</v>
       </c>
       <c r="F534" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G534" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="I534" s="10"/>
     </row>
@@ -31154,7 +31165,7 @@
         <v>267</v>
       </c>
       <c r="C536" s="21" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" s="18" t="str">
@@ -31162,13 +31173,13 @@
         <v>img</v>
       </c>
       <c r="F536" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G536" s="14" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
@@ -31300,10 +31311,10 @@
         <v>img</v>
       </c>
       <c r="F538" s="8" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="I538" s="10"/>
     </row>
@@ -31328,7 +31339,7 @@
         <v>img</v>
       </c>
       <c r="F540" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G540" s="11" t="s">
         <v>269</v>
@@ -31356,7 +31367,7 @@
         <v>img</v>
       </c>
       <c r="F542" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G542" s="11" t="s">
         <v>272</v>
@@ -31384,7 +31395,7 @@
         <v>img</v>
       </c>
       <c r="F544" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G544" s="11" t="s">
         <v>386</v>
@@ -31412,7 +31423,7 @@
         <v>img</v>
       </c>
       <c r="F546" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G546" s="11" t="s">
         <v>273</v>
@@ -31440,10 +31451,10 @@
         <v>img</v>
       </c>
       <c r="F548" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G548" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.2">
@@ -31467,7 +31478,7 @@
         <v>img</v>
       </c>
       <c r="F550" s="8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G550" s="11" t="s">
         <v>277</v>
@@ -31483,10 +31494,10 @@
       </c>
       <c r="E551" s="17"/>
       <c r="F551" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I551" s="10"/>
     </row>
@@ -31499,10 +31510,10 @@
       </c>
       <c r="E552" s="17"/>
       <c r="F552" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G552" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="I552" s="10"/>
     </row>
@@ -31527,10 +31538,10 @@
         <v>img</v>
       </c>
       <c r="F554" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G554" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I554" s="10"/>
     </row>
@@ -31548,7 +31559,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="20" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E556" s="17"/>
       <c r="F556" s="8"/>
@@ -31567,7 +31578,7 @@
         <v>img</v>
       </c>
       <c r="F557" s="8" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G557" s="11" t="s">
         <v>309</v>
@@ -31586,7 +31597,7 @@
         <v>img</v>
       </c>
       <c r="F558" s="8" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G558" s="11" t="s">
         <v>316</v>
@@ -31605,7 +31616,7 @@
         <v>img</v>
       </c>
       <c r="F559" s="8" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G559" s="11" t="s">
         <v>317</v>
@@ -31624,7 +31635,7 @@
         <v>img</v>
       </c>
       <c r="F560" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G560" s="11" t="s">
         <v>318</v>
@@ -31643,7 +31654,7 @@
         <v>img</v>
       </c>
       <c r="F561" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G561" s="11" t="s">
         <v>319</v>
@@ -31662,7 +31673,7 @@
         <v>img</v>
       </c>
       <c r="F562" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G562" s="11" t="s">
         <v>320</v>
@@ -31681,7 +31692,7 @@
         <v>img</v>
       </c>
       <c r="F563" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G563" s="11" t="s">
         <v>321</v>
@@ -31700,7 +31711,7 @@
         <v>img</v>
       </c>
       <c r="F564" s="8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G564" s="11" t="s">
         <v>357</v>
@@ -31719,7 +31730,7 @@
         <v>img</v>
       </c>
       <c r="F565" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G565" s="11" t="s">
         <v>387</v>
@@ -31746,7 +31757,7 @@
         <v>img</v>
       </c>
       <c r="F567" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G567" s="11" t="s">
         <v>392</v>
@@ -31757,11 +31768,11 @@
         <v>567</v>
       </c>
       <c r="B568" s="19" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E568" s="17"/>
       <c r="F568" s="13" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="G568" s="11" t="s">
         <v>395</v>
@@ -31777,7 +31788,7 @@
       </c>
       <c r="E569" s="17"/>
       <c r="F569" s="13" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="G569" s="11" t="s">
         <v>396</v>
@@ -31792,10 +31803,24 @@
       </c>
       <c r="E570" s="17"/>
       <c r="F570" s="13" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G570" s="11" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A571" s="9">
+        <v>570</v>
+      </c>
+      <c r="B571" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="F571" t="s">
+        <v>948</v>
+      </c>
+      <c r="G571" s="10" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -31840,7 +31865,7 @@
         <v>382</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31854,7 +31879,7 @@
         <v>443</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:116" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -31862,13 +31887,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>420</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31882,7 +31907,7 @@
         <v>427</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -31897,7 +31922,7 @@
         <v>440</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31905,13 +31930,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>441</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31922,10 +31947,10 @@
         <v>285</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:116" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -31936,10 +31961,10 @@
         <v>287</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -31953,7 +31978,7 @@
         <v>448</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F9" s="15"/>
     </row>
@@ -31965,10 +31990,10 @@
         <v>350</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -32085,13 +32110,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -32103,10 +32128,10 @@
         <v>363</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="16"/>
@@ -32116,13 +32141,13 @@
         <v>159</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>473</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32130,13 +32155,13 @@
         <v>189</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F14" s="15"/>
     </row>
@@ -32145,13 +32170,13 @@
         <v>194</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32159,13 +32184,13 @@
         <v>210</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>492</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32179,7 +32204,7 @@
         <v>498</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F17" s="15"/>
     </row>
@@ -32188,13 +32213,13 @@
         <v>254</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>545</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="16"/>
@@ -32204,13 +32229,13 @@
         <v>285</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>520</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F19" s="15"/>
     </row>
@@ -32219,13 +32244,13 @@
         <v>286</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -32351,7 +32376,7 @@
         <v>521</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="15"/>
@@ -32471,13 +32496,13 @@
         <v>310</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F22" s="15"/>
     </row>
@@ -32492,7 +32517,7 @@
         <v>528</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -32507,7 +32532,7 @@
         <v>529</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32515,13 +32540,13 @@
         <v>348</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>541</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32529,13 +32554,13 @@
         <v>352</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>542</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F26" s="15"/>
     </row>
@@ -32547,10 +32572,10 @@
         <v>292</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>548</v>
+        <v>945</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:116" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -32558,13 +32583,13 @@
         <v>416</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -32683,13 +32708,13 @@
         <v>418</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -32698,10 +32723,10 @@
         <v>432</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>207</v>
@@ -32712,13 +32737,13 @@
         <v>442</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F31"/>
       <c r="G31" s="10"/>
@@ -32728,13 +32753,13 @@
         <v>444</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F32" s="15"/>
     </row>
@@ -32743,13 +32768,13 @@
         <v>446</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F33" s="15"/>
     </row>
@@ -32758,10 +32783,10 @@
         <v>448</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>566</v>
+        <v>947</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>295</v>
@@ -32773,10 +32798,10 @@
         <v>450</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>296</v>
@@ -32788,13 +32813,13 @@
         <v>460</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F36" s="15"/>
     </row>
